--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails - kanji.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails - kanji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
   <si>
     <t>CategoryCode</t>
   </si>
@@ -79,6 +79,57 @@
   </si>
   <si>
     <t>V000010016</t>
+  </si>
+  <si>
+    <t>CA00004002</t>
+  </si>
+  <si>
+    <t>V000010017</t>
+  </si>
+  <si>
+    <t>V000010018</t>
+  </si>
+  <si>
+    <t>V000010019</t>
+  </si>
+  <si>
+    <t>V000010020</t>
+  </si>
+  <si>
+    <t>V000010021</t>
+  </si>
+  <si>
+    <t>V000010022</t>
+  </si>
+  <si>
+    <t>V000010023</t>
+  </si>
+  <si>
+    <t>V000010024</t>
+  </si>
+  <si>
+    <t>V000010025</t>
+  </si>
+  <si>
+    <t>V000010026</t>
+  </si>
+  <si>
+    <t>V000010027</t>
+  </si>
+  <si>
+    <t>V000010028</t>
+  </si>
+  <si>
+    <t>V000010029</t>
+  </si>
+  <si>
+    <t>V000010030</t>
+  </si>
+  <si>
+    <t>V000010031</t>
+  </si>
+  <si>
+    <t>V000010032</t>
   </si>
 </sst>
 </file>
@@ -417,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -618,6 +669,182 @@
         <v>20</v>
       </c>
       <c r="D17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34">
         <v>16</v>
       </c>
     </row>

--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails - kanji.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails - kanji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="242">
   <si>
     <t>CategoryCode</t>
   </si>
@@ -130,6 +130,618 @@
   </si>
   <si>
     <t>V000010032</t>
+  </si>
+  <si>
+    <t>CA00004003</t>
+  </si>
+  <si>
+    <t>V000010033</t>
+  </si>
+  <si>
+    <t>V000010034</t>
+  </si>
+  <si>
+    <t>V000010035</t>
+  </si>
+  <si>
+    <t>V000010036</t>
+  </si>
+  <si>
+    <t>V000010037</t>
+  </si>
+  <si>
+    <t>V000010038</t>
+  </si>
+  <si>
+    <t>V000010039</t>
+  </si>
+  <si>
+    <t>V000010040</t>
+  </si>
+  <si>
+    <t>V000010041</t>
+  </si>
+  <si>
+    <t>V000010042</t>
+  </si>
+  <si>
+    <t>V000010043</t>
+  </si>
+  <si>
+    <t>V000010044</t>
+  </si>
+  <si>
+    <t>V000010045</t>
+  </si>
+  <si>
+    <t>V000010046</t>
+  </si>
+  <si>
+    <t>V000010047</t>
+  </si>
+  <si>
+    <t>V000010048</t>
+  </si>
+  <si>
+    <t>CA00004004</t>
+  </si>
+  <si>
+    <t>V000010049</t>
+  </si>
+  <si>
+    <t>V000010050</t>
+  </si>
+  <si>
+    <t>V000010051</t>
+  </si>
+  <si>
+    <t>V000010052</t>
+  </si>
+  <si>
+    <t>V000010053</t>
+  </si>
+  <si>
+    <t>V000010054</t>
+  </si>
+  <si>
+    <t>V000010055</t>
+  </si>
+  <si>
+    <t>V000010056</t>
+  </si>
+  <si>
+    <t>V000010057</t>
+  </si>
+  <si>
+    <t>V000010058</t>
+  </si>
+  <si>
+    <t>V000010059</t>
+  </si>
+  <si>
+    <t>V000010060</t>
+  </si>
+  <si>
+    <t>V000010061</t>
+  </si>
+  <si>
+    <t>V000010062</t>
+  </si>
+  <si>
+    <t>V000010063</t>
+  </si>
+  <si>
+    <t>V000010064</t>
+  </si>
+  <si>
+    <t>CA00004005</t>
+  </si>
+  <si>
+    <t>V000010065</t>
+  </si>
+  <si>
+    <t>V000010066</t>
+  </si>
+  <si>
+    <t>V000010067</t>
+  </si>
+  <si>
+    <t>V000010068</t>
+  </si>
+  <si>
+    <t>V000010069</t>
+  </si>
+  <si>
+    <t>V000010070</t>
+  </si>
+  <si>
+    <t>V000010071</t>
+  </si>
+  <si>
+    <t>V000010072</t>
+  </si>
+  <si>
+    <t>V000010073</t>
+  </si>
+  <si>
+    <t>V000010074</t>
+  </si>
+  <si>
+    <t>V000010075</t>
+  </si>
+  <si>
+    <t>V000010076</t>
+  </si>
+  <si>
+    <t>V000010077</t>
+  </si>
+  <si>
+    <t>V000010078</t>
+  </si>
+  <si>
+    <t>V000010079</t>
+  </si>
+  <si>
+    <t>V000010080</t>
+  </si>
+  <si>
+    <t>CA00004006</t>
+  </si>
+  <si>
+    <t>V000010081</t>
+  </si>
+  <si>
+    <t>V000010082</t>
+  </si>
+  <si>
+    <t>V000010083</t>
+  </si>
+  <si>
+    <t>V000010084</t>
+  </si>
+  <si>
+    <t>V000010085</t>
+  </si>
+  <si>
+    <t>V000010086</t>
+  </si>
+  <si>
+    <t>V000010087</t>
+  </si>
+  <si>
+    <t>V000010088</t>
+  </si>
+  <si>
+    <t>V000010089</t>
+  </si>
+  <si>
+    <t>V000010090</t>
+  </si>
+  <si>
+    <t>V000010091</t>
+  </si>
+  <si>
+    <t>V000010092</t>
+  </si>
+  <si>
+    <t>V000010093</t>
+  </si>
+  <si>
+    <t>V000010094</t>
+  </si>
+  <si>
+    <t>V000010095</t>
+  </si>
+  <si>
+    <t>V000010096</t>
+  </si>
+  <si>
+    <t>CA00004007</t>
+  </si>
+  <si>
+    <t>V000010097</t>
+  </si>
+  <si>
+    <t>V000010098</t>
+  </si>
+  <si>
+    <t>V000010099</t>
+  </si>
+  <si>
+    <t>V000010100</t>
+  </si>
+  <si>
+    <t>V000010101</t>
+  </si>
+  <si>
+    <t>V000010102</t>
+  </si>
+  <si>
+    <t>V000010103</t>
+  </si>
+  <si>
+    <t>V000010104</t>
+  </si>
+  <si>
+    <t>V000010105</t>
+  </si>
+  <si>
+    <t>V000010106</t>
+  </si>
+  <si>
+    <t>V000010107</t>
+  </si>
+  <si>
+    <t>V000010108</t>
+  </si>
+  <si>
+    <t>V000010109</t>
+  </si>
+  <si>
+    <t>V000010110</t>
+  </si>
+  <si>
+    <t>V000010111</t>
+  </si>
+  <si>
+    <t>V000010112</t>
+  </si>
+  <si>
+    <t>CA00004008</t>
+  </si>
+  <si>
+    <t>V000010113</t>
+  </si>
+  <si>
+    <t>V000010114</t>
+  </si>
+  <si>
+    <t>V000010115</t>
+  </si>
+  <si>
+    <t>V000010116</t>
+  </si>
+  <si>
+    <t>V000010117</t>
+  </si>
+  <si>
+    <t>V000010118</t>
+  </si>
+  <si>
+    <t>V000010119</t>
+  </si>
+  <si>
+    <t>V000010120</t>
+  </si>
+  <si>
+    <t>V000010121</t>
+  </si>
+  <si>
+    <t>V000010122</t>
+  </si>
+  <si>
+    <t>V000010123</t>
+  </si>
+  <si>
+    <t>V000010124</t>
+  </si>
+  <si>
+    <t>V000010125</t>
+  </si>
+  <si>
+    <t>V000010126</t>
+  </si>
+  <si>
+    <t>V000010127</t>
+  </si>
+  <si>
+    <t>V000010128</t>
+  </si>
+  <si>
+    <t>CA00004009</t>
+  </si>
+  <si>
+    <t>V000010129</t>
+  </si>
+  <si>
+    <t>V000010130</t>
+  </si>
+  <si>
+    <t>V000010131</t>
+  </si>
+  <si>
+    <t>V000010132</t>
+  </si>
+  <si>
+    <t>V000010133</t>
+  </si>
+  <si>
+    <t>V000010134</t>
+  </si>
+  <si>
+    <t>V000010135</t>
+  </si>
+  <si>
+    <t>V000010136</t>
+  </si>
+  <si>
+    <t>V000010137</t>
+  </si>
+  <si>
+    <t>V000010138</t>
+  </si>
+  <si>
+    <t>V000010139</t>
+  </si>
+  <si>
+    <t>V000010140</t>
+  </si>
+  <si>
+    <t>V000010141</t>
+  </si>
+  <si>
+    <t>V000010142</t>
+  </si>
+  <si>
+    <t>V000010143</t>
+  </si>
+  <si>
+    <t>V000010144</t>
+  </si>
+  <si>
+    <t>CA00004010</t>
+  </si>
+  <si>
+    <t>V000010145</t>
+  </si>
+  <si>
+    <t>V000010146</t>
+  </si>
+  <si>
+    <t>V000010147</t>
+  </si>
+  <si>
+    <t>V000010148</t>
+  </si>
+  <si>
+    <t>V000010149</t>
+  </si>
+  <si>
+    <t>V000010150</t>
+  </si>
+  <si>
+    <t>V000010151</t>
+  </si>
+  <si>
+    <t>V000010152</t>
+  </si>
+  <si>
+    <t>V000010153</t>
+  </si>
+  <si>
+    <t>V000010154</t>
+  </si>
+  <si>
+    <t>V000010155</t>
+  </si>
+  <si>
+    <t>V000010156</t>
+  </si>
+  <si>
+    <t>V000010157</t>
+  </si>
+  <si>
+    <t>V000010158</t>
+  </si>
+  <si>
+    <t>V000010159</t>
+  </si>
+  <si>
+    <t>V000010160</t>
+  </si>
+  <si>
+    <t>CA00004011</t>
+  </si>
+  <si>
+    <t>V000010161</t>
+  </si>
+  <si>
+    <t>V000010162</t>
+  </si>
+  <si>
+    <t>V000010163</t>
+  </si>
+  <si>
+    <t>V000010164</t>
+  </si>
+  <si>
+    <t>V000010165</t>
+  </si>
+  <si>
+    <t>V000010166</t>
+  </si>
+  <si>
+    <t>V000010167</t>
+  </si>
+  <si>
+    <t>V000010168</t>
+  </si>
+  <si>
+    <t>V000010169</t>
+  </si>
+  <si>
+    <t>V000010170</t>
+  </si>
+  <si>
+    <t>V000010171</t>
+  </si>
+  <si>
+    <t>V000010172</t>
+  </si>
+  <si>
+    <t>V000010173</t>
+  </si>
+  <si>
+    <t>V000010174</t>
+  </si>
+  <si>
+    <t>V000010175</t>
+  </si>
+  <si>
+    <t>V000010176</t>
+  </si>
+  <si>
+    <t>CA00004012</t>
+  </si>
+  <si>
+    <t>V000010177</t>
+  </si>
+  <si>
+    <t>V000010178</t>
+  </si>
+  <si>
+    <t>V000010179</t>
+  </si>
+  <si>
+    <t>V000010180</t>
+  </si>
+  <si>
+    <t>V000010181</t>
+  </si>
+  <si>
+    <t>V000010182</t>
+  </si>
+  <si>
+    <t>V000010183</t>
+  </si>
+  <si>
+    <t>V000010184</t>
+  </si>
+  <si>
+    <t>V000010185</t>
+  </si>
+  <si>
+    <t>V000010186</t>
+  </si>
+  <si>
+    <t>V000010187</t>
+  </si>
+  <si>
+    <t>V000010188</t>
+  </si>
+  <si>
+    <t>V000010189</t>
+  </si>
+  <si>
+    <t>V000010190</t>
+  </si>
+  <si>
+    <t>V000010191</t>
+  </si>
+  <si>
+    <t>V000010192</t>
+  </si>
+  <si>
+    <t>CA00004013</t>
+  </si>
+  <si>
+    <t>V000010193</t>
+  </si>
+  <si>
+    <t>V000010194</t>
+  </si>
+  <si>
+    <t>V000010195</t>
+  </si>
+  <si>
+    <t>V000010196</t>
+  </si>
+  <si>
+    <t>V000010197</t>
+  </si>
+  <si>
+    <t>V000010198</t>
+  </si>
+  <si>
+    <t>V000010199</t>
+  </si>
+  <si>
+    <t>V000010200</t>
+  </si>
+  <si>
+    <t>V000010201</t>
+  </si>
+  <si>
+    <t>V000010202</t>
+  </si>
+  <si>
+    <t>V000010203</t>
+  </si>
+  <si>
+    <t>V000010204</t>
+  </si>
+  <si>
+    <t>V000010205</t>
+  </si>
+  <si>
+    <t>V000010206</t>
+  </si>
+  <si>
+    <t>V000010207</t>
+  </si>
+  <si>
+    <t>V000010208</t>
+  </si>
+  <si>
+    <t>CA00004014</t>
+  </si>
+  <si>
+    <t>V000010209</t>
+  </si>
+  <si>
+    <t>V000010210</t>
+  </si>
+  <si>
+    <t>V000010211</t>
+  </si>
+  <si>
+    <t>V000010212</t>
+  </si>
+  <si>
+    <t>V000010213</t>
+  </si>
+  <si>
+    <t>V000010214</t>
+  </si>
+  <si>
+    <t>V000010215</t>
+  </si>
+  <si>
+    <t>V000010216</t>
+  </si>
+  <si>
+    <t>V000010217</t>
+  </si>
+  <si>
+    <t>V000010218</t>
+  </si>
+  <si>
+    <t>V000010219</t>
+  </si>
+  <si>
+    <t>V000010220</t>
+  </si>
+  <si>
+    <t>V000010221</t>
+  </si>
+  <si>
+    <t>V000010222</t>
+  </si>
+  <si>
+    <t>V000010223</t>
+  </si>
+  <si>
+    <t>V000010224</t>
   </si>
 </sst>
 </file>
@@ -468,10 +1080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
+      <selection activeCell="C223" sqref="C223:C238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -845,6 +1457,2118 @@
         <v>37</v>
       </c>
       <c r="D34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>41</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>46</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>49</v>
+      </c>
+      <c r="D46">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>50</v>
+      </c>
+      <c r="D47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>54</v>
+      </c>
+      <c r="D51">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55" t="s">
+        <v>58</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="C64" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="C70" t="s">
+        <v>73</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>74</v>
+      </c>
+      <c r="D71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" t="s">
+        <v>75</v>
+      </c>
+      <c r="D72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="C73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" t="s">
+        <v>72</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" t="s">
+        <v>80</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="C78" t="s">
+        <v>81</v>
+      </c>
+      <c r="D78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" t="s">
+        <v>82</v>
+      </c>
+      <c r="D79">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" t="s">
+        <v>72</v>
+      </c>
+      <c r="C80" t="s">
+        <v>83</v>
+      </c>
+      <c r="D80">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" t="s">
+        <v>72</v>
+      </c>
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="D81">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" t="s">
+        <v>72</v>
+      </c>
+      <c r="C82" t="s">
+        <v>85</v>
+      </c>
+      <c r="D82">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" t="s">
+        <v>86</v>
+      </c>
+      <c r="D83">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" t="s">
+        <v>72</v>
+      </c>
+      <c r="C84" t="s">
+        <v>87</v>
+      </c>
+      <c r="D84">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" t="s">
+        <v>72</v>
+      </c>
+      <c r="C85" t="s">
+        <v>88</v>
+      </c>
+      <c r="D85">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" t="s">
+        <v>89</v>
+      </c>
+      <c r="C87" t="s">
+        <v>90</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>91</v>
+      </c>
+      <c r="D88">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" t="s">
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>92</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="C90" t="s">
+        <v>93</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>94</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" t="s">
+        <v>89</v>
+      </c>
+      <c r="C92" t="s">
+        <v>95</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="C93" t="s">
+        <v>96</v>
+      </c>
+      <c r="D93">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C94" t="s">
+        <v>97</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" t="s">
+        <v>89</v>
+      </c>
+      <c r="C95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" t="s">
+        <v>89</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" t="s">
+        <v>100</v>
+      </c>
+      <c r="D97">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" t="s">
+        <v>102</v>
+      </c>
+      <c r="D99">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" t="s">
+        <v>103</v>
+      </c>
+      <c r="D100">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" t="s">
+        <v>104</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" t="s">
+        <v>107</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>108</v>
+      </c>
+      <c r="D105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" t="s">
+        <v>106</v>
+      </c>
+      <c r="C106" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="C107" t="s">
+        <v>110</v>
+      </c>
+      <c r="D107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>111</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" t="s">
+        <v>106</v>
+      </c>
+      <c r="C109" t="s">
+        <v>112</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" t="s">
+        <v>106</v>
+      </c>
+      <c r="C110" t="s">
+        <v>113</v>
+      </c>
+      <c r="D110">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" t="s">
+        <v>106</v>
+      </c>
+      <c r="C111" t="s">
+        <v>114</v>
+      </c>
+      <c r="D111">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" t="s">
+        <v>106</v>
+      </c>
+      <c r="C112" t="s">
+        <v>115</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" t="s">
+        <v>106</v>
+      </c>
+      <c r="C113" t="s">
+        <v>116</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>106</v>
+      </c>
+      <c r="C114" t="s">
+        <v>117</v>
+      </c>
+      <c r="D114">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>106</v>
+      </c>
+      <c r="C115" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>106</v>
+      </c>
+      <c r="C116" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" t="s">
+        <v>106</v>
+      </c>
+      <c r="C117" t="s">
+        <v>120</v>
+      </c>
+      <c r="D117">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>106</v>
+      </c>
+      <c r="C118" t="s">
+        <v>121</v>
+      </c>
+      <c r="D118">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>106</v>
+      </c>
+      <c r="C119" t="s">
+        <v>122</v>
+      </c>
+      <c r="D119">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>123</v>
+      </c>
+      <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D122">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" t="s">
+        <v>126</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="C124" t="s">
+        <v>127</v>
+      </c>
+      <c r="D124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>123</v>
+      </c>
+      <c r="C125" t="s">
+        <v>128</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>123</v>
+      </c>
+      <c r="C126" t="s">
+        <v>129</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>123</v>
+      </c>
+      <c r="C127" t="s">
+        <v>130</v>
+      </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" t="s">
+        <v>123</v>
+      </c>
+      <c r="C128" t="s">
+        <v>131</v>
+      </c>
+      <c r="D128">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>123</v>
+      </c>
+      <c r="C129" t="s">
+        <v>132</v>
+      </c>
+      <c r="D129">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>123</v>
+      </c>
+      <c r="C130" t="s">
+        <v>133</v>
+      </c>
+      <c r="D130">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>123</v>
+      </c>
+      <c r="C131" t="s">
+        <v>134</v>
+      </c>
+      <c r="D131">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>123</v>
+      </c>
+      <c r="C132" t="s">
+        <v>135</v>
+      </c>
+      <c r="D132">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>123</v>
+      </c>
+      <c r="C133" t="s">
+        <v>136</v>
+      </c>
+      <c r="D133">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>123</v>
+      </c>
+      <c r="C134" t="s">
+        <v>137</v>
+      </c>
+      <c r="D134">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>123</v>
+      </c>
+      <c r="C135" t="s">
+        <v>138</v>
+      </c>
+      <c r="D135">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>123</v>
+      </c>
+      <c r="C136" t="s">
+        <v>139</v>
+      </c>
+      <c r="D136">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>140</v>
+      </c>
+      <c r="C138" t="s">
+        <v>141</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="C139" t="s">
+        <v>142</v>
+      </c>
+      <c r="D139">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>140</v>
+      </c>
+      <c r="C140" t="s">
+        <v>143</v>
+      </c>
+      <c r="D140">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="C141" t="s">
+        <v>144</v>
+      </c>
+      <c r="D141">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>140</v>
+      </c>
+      <c r="C142" t="s">
+        <v>145</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>140</v>
+      </c>
+      <c r="C143" t="s">
+        <v>146</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>140</v>
+      </c>
+      <c r="C144" t="s">
+        <v>147</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>140</v>
+      </c>
+      <c r="C145" t="s">
+        <v>148</v>
+      </c>
+      <c r="D145">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>140</v>
+      </c>
+      <c r="C146" t="s">
+        <v>149</v>
+      </c>
+      <c r="D146">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>140</v>
+      </c>
+      <c r="C147" t="s">
+        <v>150</v>
+      </c>
+      <c r="D147">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>140</v>
+      </c>
+      <c r="C148" t="s">
+        <v>151</v>
+      </c>
+      <c r="D148">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>140</v>
+      </c>
+      <c r="C149" t="s">
+        <v>152</v>
+      </c>
+      <c r="D149">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>140</v>
+      </c>
+      <c r="C150" t="s">
+        <v>153</v>
+      </c>
+      <c r="D150">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>140</v>
+      </c>
+      <c r="C151" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>140</v>
+      </c>
+      <c r="C152" t="s">
+        <v>155</v>
+      </c>
+      <c r="D152">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>140</v>
+      </c>
+      <c r="C153" t="s">
+        <v>156</v>
+      </c>
+      <c r="D153">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C155" t="s">
+        <v>158</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>157</v>
+      </c>
+      <c r="C156" t="s">
+        <v>159</v>
+      </c>
+      <c r="D156">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>157</v>
+      </c>
+      <c r="C157" t="s">
+        <v>160</v>
+      </c>
+      <c r="D157">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>157</v>
+      </c>
+      <c r="C158" t="s">
+        <v>161</v>
+      </c>
+      <c r="D158">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>157</v>
+      </c>
+      <c r="C159" t="s">
+        <v>162</v>
+      </c>
+      <c r="D159">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>157</v>
+      </c>
+      <c r="C160" t="s">
+        <v>163</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>157</v>
+      </c>
+      <c r="C161" t="s">
+        <v>164</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>157</v>
+      </c>
+      <c r="C162" t="s">
+        <v>165</v>
+      </c>
+      <c r="D162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>157</v>
+      </c>
+      <c r="C163" t="s">
+        <v>166</v>
+      </c>
+      <c r="D163">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>157</v>
+      </c>
+      <c r="C164" t="s">
+        <v>167</v>
+      </c>
+      <c r="D164">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>157</v>
+      </c>
+      <c r="C165" t="s">
+        <v>168</v>
+      </c>
+      <c r="D165">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>157</v>
+      </c>
+      <c r="C166" t="s">
+        <v>169</v>
+      </c>
+      <c r="D166">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>157</v>
+      </c>
+      <c r="C167" t="s">
+        <v>170</v>
+      </c>
+      <c r="D167">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>157</v>
+      </c>
+      <c r="C168" t="s">
+        <v>171</v>
+      </c>
+      <c r="D168">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>157</v>
+      </c>
+      <c r="C169" t="s">
+        <v>172</v>
+      </c>
+      <c r="D169">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>157</v>
+      </c>
+      <c r="C170" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="C172" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>174</v>
+      </c>
+      <c r="C173" t="s">
+        <v>176</v>
+      </c>
+      <c r="D173">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" t="s">
+        <v>177</v>
+      </c>
+      <c r="D174">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>174</v>
+      </c>
+      <c r="C175" t="s">
+        <v>178</v>
+      </c>
+      <c r="D175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>174</v>
+      </c>
+      <c r="C176" t="s">
+        <v>179</v>
+      </c>
+      <c r="D176">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" t="s">
+        <v>174</v>
+      </c>
+      <c r="C177" t="s">
+        <v>180</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" t="s">
+        <v>174</v>
+      </c>
+      <c r="C178" t="s">
+        <v>181</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" t="s">
+        <v>174</v>
+      </c>
+      <c r="C179" t="s">
+        <v>182</v>
+      </c>
+      <c r="D179">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" t="s">
+        <v>174</v>
+      </c>
+      <c r="C180" t="s">
+        <v>183</v>
+      </c>
+      <c r="D180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" t="s">
+        <v>174</v>
+      </c>
+      <c r="C181" t="s">
+        <v>184</v>
+      </c>
+      <c r="D181">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" t="s">
+        <v>174</v>
+      </c>
+      <c r="C182" t="s">
+        <v>185</v>
+      </c>
+      <c r="D182">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" t="s">
+        <v>174</v>
+      </c>
+      <c r="C183" t="s">
+        <v>186</v>
+      </c>
+      <c r="D183">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" t="s">
+        <v>174</v>
+      </c>
+      <c r="C184" t="s">
+        <v>187</v>
+      </c>
+      <c r="D184">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" t="s">
+        <v>174</v>
+      </c>
+      <c r="C185" t="s">
+        <v>188</v>
+      </c>
+      <c r="D185">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" t="s">
+        <v>174</v>
+      </c>
+      <c r="C186" t="s">
+        <v>189</v>
+      </c>
+      <c r="D186">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" t="s">
+        <v>174</v>
+      </c>
+      <c r="C187" t="s">
+        <v>190</v>
+      </c>
+      <c r="D187">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="C189" t="s">
+        <v>192</v>
+      </c>
+      <c r="D189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" t="s">
+        <v>191</v>
+      </c>
+      <c r="C190" t="s">
+        <v>193</v>
+      </c>
+      <c r="D190">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="C191" t="s">
+        <v>194</v>
+      </c>
+      <c r="D191">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" t="s">
+        <v>191</v>
+      </c>
+      <c r="C192" t="s">
+        <v>195</v>
+      </c>
+      <c r="D192">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" t="s">
+        <v>191</v>
+      </c>
+      <c r="C193" t="s">
+        <v>196</v>
+      </c>
+      <c r="D193">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
+        <v>191</v>
+      </c>
+      <c r="C194" t="s">
+        <v>197</v>
+      </c>
+      <c r="D194">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
+        <v>191</v>
+      </c>
+      <c r="C195" t="s">
+        <v>198</v>
+      </c>
+      <c r="D195">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
+        <v>191</v>
+      </c>
+      <c r="C196" t="s">
+        <v>199</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" t="s">
+        <v>191</v>
+      </c>
+      <c r="C197" t="s">
+        <v>200</v>
+      </c>
+      <c r="D197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" t="s">
+        <v>191</v>
+      </c>
+      <c r="C198" t="s">
+        <v>201</v>
+      </c>
+      <c r="D198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" t="s">
+        <v>191</v>
+      </c>
+      <c r="C199" t="s">
+        <v>202</v>
+      </c>
+      <c r="D199">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" t="s">
+        <v>191</v>
+      </c>
+      <c r="C200" t="s">
+        <v>203</v>
+      </c>
+      <c r="D200">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" t="s">
+        <v>191</v>
+      </c>
+      <c r="C201" t="s">
+        <v>204</v>
+      </c>
+      <c r="D201">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" t="s">
+        <v>191</v>
+      </c>
+      <c r="C202" t="s">
+        <v>205</v>
+      </c>
+      <c r="D202">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" t="s">
+        <v>191</v>
+      </c>
+      <c r="C203" t="s">
+        <v>206</v>
+      </c>
+      <c r="D203">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" t="s">
+        <v>191</v>
+      </c>
+      <c r="C204" t="s">
+        <v>207</v>
+      </c>
+      <c r="D204">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="C206" t="s">
+        <v>209</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+      <c r="C207" t="s">
+        <v>210</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="C208" t="s">
+        <v>211</v>
+      </c>
+      <c r="D208">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" t="s">
+        <v>208</v>
+      </c>
+      <c r="C209" t="s">
+        <v>212</v>
+      </c>
+      <c r="D209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" t="s">
+        <v>208</v>
+      </c>
+      <c r="C210" t="s">
+        <v>213</v>
+      </c>
+      <c r="D210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" t="s">
+        <v>208</v>
+      </c>
+      <c r="C211" t="s">
+        <v>214</v>
+      </c>
+      <c r="D211">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" t="s">
+        <v>208</v>
+      </c>
+      <c r="C212" t="s">
+        <v>215</v>
+      </c>
+      <c r="D212">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" t="s">
+        <v>208</v>
+      </c>
+      <c r="C213" t="s">
+        <v>216</v>
+      </c>
+      <c r="D213">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" t="s">
+        <v>208</v>
+      </c>
+      <c r="C214" t="s">
+        <v>217</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" t="s">
+        <v>208</v>
+      </c>
+      <c r="C215" t="s">
+        <v>218</v>
+      </c>
+      <c r="D215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" t="s">
+        <v>208</v>
+      </c>
+      <c r="C216" t="s">
+        <v>219</v>
+      </c>
+      <c r="D216">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" t="s">
+        <v>208</v>
+      </c>
+      <c r="C217" t="s">
+        <v>220</v>
+      </c>
+      <c r="D217">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" t="s">
+        <v>208</v>
+      </c>
+      <c r="C218" t="s">
+        <v>221</v>
+      </c>
+      <c r="D218">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" t="s">
+        <v>208</v>
+      </c>
+      <c r="C219" t="s">
+        <v>222</v>
+      </c>
+      <c r="D219">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" t="s">
+        <v>208</v>
+      </c>
+      <c r="C220" t="s">
+        <v>223</v>
+      </c>
+      <c r="D220">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" t="s">
+        <v>208</v>
+      </c>
+      <c r="C221" t="s">
+        <v>224</v>
+      </c>
+      <c r="D221">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="C223" t="s">
+        <v>226</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+      <c r="C224" t="s">
+        <v>227</v>
+      </c>
+      <c r="D224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="C225" t="s">
+        <v>228</v>
+      </c>
+      <c r="D225">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" t="s">
+        <v>225</v>
+      </c>
+      <c r="C226" t="s">
+        <v>229</v>
+      </c>
+      <c r="D226">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" t="s">
+        <v>225</v>
+      </c>
+      <c r="C227" t="s">
+        <v>230</v>
+      </c>
+      <c r="D227">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" t="s">
+        <v>225</v>
+      </c>
+      <c r="C228" t="s">
+        <v>231</v>
+      </c>
+      <c r="D228">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" t="s">
+        <v>225</v>
+      </c>
+      <c r="C229" t="s">
+        <v>232</v>
+      </c>
+      <c r="D229">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" t="s">
+        <v>225</v>
+      </c>
+      <c r="C230" t="s">
+        <v>233</v>
+      </c>
+      <c r="D230">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" t="s">
+        <v>225</v>
+      </c>
+      <c r="C231" t="s">
+        <v>234</v>
+      </c>
+      <c r="D231">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" t="s">
+        <v>225</v>
+      </c>
+      <c r="C232" t="s">
+        <v>235</v>
+      </c>
+      <c r="D232">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" t="s">
+        <v>225</v>
+      </c>
+      <c r="C233" t="s">
+        <v>236</v>
+      </c>
+      <c r="D233">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" t="s">
+        <v>225</v>
+      </c>
+      <c r="C234" t="s">
+        <v>237</v>
+      </c>
+      <c r="D234">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" t="s">
+        <v>225</v>
+      </c>
+      <c r="C235" t="s">
+        <v>238</v>
+      </c>
+      <c r="D235">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" t="s">
+        <v>225</v>
+      </c>
+      <c r="C236" t="s">
+        <v>239</v>
+      </c>
+      <c r="D236">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" t="s">
+        <v>225</v>
+      </c>
+      <c r="C237" t="s">
+        <v>240</v>
+      </c>
+      <c r="D237">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" t="s">
+        <v>225</v>
+      </c>
+      <c r="C238" t="s">
+        <v>241</v>
+      </c>
+      <c r="D238">
         <v>16</v>
       </c>
     </row>

--- a/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails - kanji.xlsx
+++ b/NihongoVoca - Copy/DB/Data/MSSQL Data/ms_vocabularydetails - kanji.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="548">
   <si>
     <t>CategoryCode</t>
   </si>
@@ -742,6 +742,924 @@
   </si>
   <si>
     <t>V000010224</t>
+  </si>
+  <si>
+    <t>CA00004015</t>
+  </si>
+  <si>
+    <t>V000010225</t>
+  </si>
+  <si>
+    <t>V000010226</t>
+  </si>
+  <si>
+    <t>V000010227</t>
+  </si>
+  <si>
+    <t>V000010228</t>
+  </si>
+  <si>
+    <t>V000010229</t>
+  </si>
+  <si>
+    <t>V000010230</t>
+  </si>
+  <si>
+    <t>V000010231</t>
+  </si>
+  <si>
+    <t>V000010232</t>
+  </si>
+  <si>
+    <t>V000010233</t>
+  </si>
+  <si>
+    <t>V000010234</t>
+  </si>
+  <si>
+    <t>V000010235</t>
+  </si>
+  <si>
+    <t>V000010236</t>
+  </si>
+  <si>
+    <t>V000010237</t>
+  </si>
+  <si>
+    <t>V000010238</t>
+  </si>
+  <si>
+    <t>V000010239</t>
+  </si>
+  <si>
+    <t>V000010240</t>
+  </si>
+  <si>
+    <t>V000010241</t>
+  </si>
+  <si>
+    <t>V000010242</t>
+  </si>
+  <si>
+    <t>V000010243</t>
+  </si>
+  <si>
+    <t>V000010244</t>
+  </si>
+  <si>
+    <t>V000010245</t>
+  </si>
+  <si>
+    <t>V000010246</t>
+  </si>
+  <si>
+    <t>V000010247</t>
+  </si>
+  <si>
+    <t>V000010248</t>
+  </si>
+  <si>
+    <t>V000010249</t>
+  </si>
+  <si>
+    <t>V000010250</t>
+  </si>
+  <si>
+    <t>V000010251</t>
+  </si>
+  <si>
+    <t>V000010252</t>
+  </si>
+  <si>
+    <t>V000010253</t>
+  </si>
+  <si>
+    <t>V000010254</t>
+  </si>
+  <si>
+    <t>V000010255</t>
+  </si>
+  <si>
+    <t>V000010256</t>
+  </si>
+  <si>
+    <t>CA00004016</t>
+  </si>
+  <si>
+    <t>CA00004017</t>
+  </si>
+  <si>
+    <t>V000010257</t>
+  </si>
+  <si>
+    <t>V000010258</t>
+  </si>
+  <si>
+    <t>V000010259</t>
+  </si>
+  <si>
+    <t>V000010260</t>
+  </si>
+  <si>
+    <t>V000010261</t>
+  </si>
+  <si>
+    <t>V000010262</t>
+  </si>
+  <si>
+    <t>V000010263</t>
+  </si>
+  <si>
+    <t>V000010264</t>
+  </si>
+  <si>
+    <t>V000010265</t>
+  </si>
+  <si>
+    <t>V000010266</t>
+  </si>
+  <si>
+    <t>V000010267</t>
+  </si>
+  <si>
+    <t>V000010268</t>
+  </si>
+  <si>
+    <t>V000010269</t>
+  </si>
+  <si>
+    <t>V000010270</t>
+  </si>
+  <si>
+    <t>V000010271</t>
+  </si>
+  <si>
+    <t>V000010272</t>
+  </si>
+  <si>
+    <t>CA00004018</t>
+  </si>
+  <si>
+    <t>V000010273</t>
+  </si>
+  <si>
+    <t>V000010274</t>
+  </si>
+  <si>
+    <t>V000010275</t>
+  </si>
+  <si>
+    <t>V000010276</t>
+  </si>
+  <si>
+    <t>V000010277</t>
+  </si>
+  <si>
+    <t>V000010278</t>
+  </si>
+  <si>
+    <t>V000010279</t>
+  </si>
+  <si>
+    <t>V000010280</t>
+  </si>
+  <si>
+    <t>V000010281</t>
+  </si>
+  <si>
+    <t>V000010282</t>
+  </si>
+  <si>
+    <t>V000010283</t>
+  </si>
+  <si>
+    <t>V000010284</t>
+  </si>
+  <si>
+    <t>V000010285</t>
+  </si>
+  <si>
+    <t>V000010286</t>
+  </si>
+  <si>
+    <t>V000010287</t>
+  </si>
+  <si>
+    <t>V000010288</t>
+  </si>
+  <si>
+    <t>CA00004019</t>
+  </si>
+  <si>
+    <t>V000010289</t>
+  </si>
+  <si>
+    <t>V000010290</t>
+  </si>
+  <si>
+    <t>V000010291</t>
+  </si>
+  <si>
+    <t>V000010292</t>
+  </si>
+  <si>
+    <t>V000010293</t>
+  </si>
+  <si>
+    <t>V000010294</t>
+  </si>
+  <si>
+    <t>V000010295</t>
+  </si>
+  <si>
+    <t>V000010296</t>
+  </si>
+  <si>
+    <t>V000010297</t>
+  </si>
+  <si>
+    <t>V000010298</t>
+  </si>
+  <si>
+    <t>V000010299</t>
+  </si>
+  <si>
+    <t>V000010300</t>
+  </si>
+  <si>
+    <t>V000010301</t>
+  </si>
+  <si>
+    <t>V000010302</t>
+  </si>
+  <si>
+    <t>V000010303</t>
+  </si>
+  <si>
+    <t>V000010304</t>
+  </si>
+  <si>
+    <t>CA00004020</t>
+  </si>
+  <si>
+    <t>V000010305</t>
+  </si>
+  <si>
+    <t>V000010306</t>
+  </si>
+  <si>
+    <t>V000010307</t>
+  </si>
+  <si>
+    <t>V000010308</t>
+  </si>
+  <si>
+    <t>V000010309</t>
+  </si>
+  <si>
+    <t>V000010310</t>
+  </si>
+  <si>
+    <t>V000010311</t>
+  </si>
+  <si>
+    <t>V000010312</t>
+  </si>
+  <si>
+    <t>V000010313</t>
+  </si>
+  <si>
+    <t>V000010314</t>
+  </si>
+  <si>
+    <t>V000010315</t>
+  </si>
+  <si>
+    <t>V000010316</t>
+  </si>
+  <si>
+    <t>V000010317</t>
+  </si>
+  <si>
+    <t>V000010318</t>
+  </si>
+  <si>
+    <t>V000010319</t>
+  </si>
+  <si>
+    <t>V000010320</t>
+  </si>
+  <si>
+    <t>CA00004021</t>
+  </si>
+  <si>
+    <t>CA00004022</t>
+  </si>
+  <si>
+    <t>CA00004023</t>
+  </si>
+  <si>
+    <t>CA00004024</t>
+  </si>
+  <si>
+    <t>CA00004025</t>
+  </si>
+  <si>
+    <t>CA00004026</t>
+  </si>
+  <si>
+    <t>CA00004027</t>
+  </si>
+  <si>
+    <t>CA00004028</t>
+  </si>
+  <si>
+    <t>CA00004029</t>
+  </si>
+  <si>
+    <t>CA00004030</t>
+  </si>
+  <si>
+    <t>CA00004031</t>
+  </si>
+  <si>
+    <t>CA00004032</t>
+  </si>
+  <si>
+    <t>V000010321</t>
+  </si>
+  <si>
+    <t>V000010322</t>
+  </si>
+  <si>
+    <t>V000010323</t>
+  </si>
+  <si>
+    <t>V000010324</t>
+  </si>
+  <si>
+    <t>V000010325</t>
+  </si>
+  <si>
+    <t>V000010326</t>
+  </si>
+  <si>
+    <t>V000010327</t>
+  </si>
+  <si>
+    <t>V000010328</t>
+  </si>
+  <si>
+    <t>V000010329</t>
+  </si>
+  <si>
+    <t>V000010330</t>
+  </si>
+  <si>
+    <t>V000010331</t>
+  </si>
+  <si>
+    <t>V000010332</t>
+  </si>
+  <si>
+    <t>V000010333</t>
+  </si>
+  <si>
+    <t>V000010334</t>
+  </si>
+  <si>
+    <t>V000010335</t>
+  </si>
+  <si>
+    <t>V000010336</t>
+  </si>
+  <si>
+    <t>V000010337</t>
+  </si>
+  <si>
+    <t>V000010338</t>
+  </si>
+  <si>
+    <t>V000010339</t>
+  </si>
+  <si>
+    <t>V000010340</t>
+  </si>
+  <si>
+    <t>V000010341</t>
+  </si>
+  <si>
+    <t>V000010342</t>
+  </si>
+  <si>
+    <t>V000010343</t>
+  </si>
+  <si>
+    <t>V000010344</t>
+  </si>
+  <si>
+    <t>V000010345</t>
+  </si>
+  <si>
+    <t>V000010346</t>
+  </si>
+  <si>
+    <t>V000010347</t>
+  </si>
+  <si>
+    <t>V000010348</t>
+  </si>
+  <si>
+    <t>V000010349</t>
+  </si>
+  <si>
+    <t>V000010350</t>
+  </si>
+  <si>
+    <t>V000010351</t>
+  </si>
+  <si>
+    <t>V000010352</t>
+  </si>
+  <si>
+    <t>V000010353</t>
+  </si>
+  <si>
+    <t>V000010354</t>
+  </si>
+  <si>
+    <t>V000010355</t>
+  </si>
+  <si>
+    <t>V000010356</t>
+  </si>
+  <si>
+    <t>V000010357</t>
+  </si>
+  <si>
+    <t>V000010358</t>
+  </si>
+  <si>
+    <t>V000010359</t>
+  </si>
+  <si>
+    <t>V000010360</t>
+  </si>
+  <si>
+    <t>V000010361</t>
+  </si>
+  <si>
+    <t>V000010362</t>
+  </si>
+  <si>
+    <t>V000010363</t>
+  </si>
+  <si>
+    <t>V000010364</t>
+  </si>
+  <si>
+    <t>V000010365</t>
+  </si>
+  <si>
+    <t>V000010366</t>
+  </si>
+  <si>
+    <t>V000010367</t>
+  </si>
+  <si>
+    <t>V000010368</t>
+  </si>
+  <si>
+    <t>V000010369</t>
+  </si>
+  <si>
+    <t>V000010370</t>
+  </si>
+  <si>
+    <t>V000010371</t>
+  </si>
+  <si>
+    <t>V000010372</t>
+  </si>
+  <si>
+    <t>V000010373</t>
+  </si>
+  <si>
+    <t>V000010374</t>
+  </si>
+  <si>
+    <t>V000010375</t>
+  </si>
+  <si>
+    <t>V000010376</t>
+  </si>
+  <si>
+    <t>V000010377</t>
+  </si>
+  <si>
+    <t>V000010378</t>
+  </si>
+  <si>
+    <t>V000010379</t>
+  </si>
+  <si>
+    <t>V000010380</t>
+  </si>
+  <si>
+    <t>V000010381</t>
+  </si>
+  <si>
+    <t>V000010382</t>
+  </si>
+  <si>
+    <t>V000010383</t>
+  </si>
+  <si>
+    <t>V000010384</t>
+  </si>
+  <si>
+    <t>V000010385</t>
+  </si>
+  <si>
+    <t>V000010386</t>
+  </si>
+  <si>
+    <t>V000010387</t>
+  </si>
+  <si>
+    <t>V000010388</t>
+  </si>
+  <si>
+    <t>V000010389</t>
+  </si>
+  <si>
+    <t>V000010390</t>
+  </si>
+  <si>
+    <t>V000010391</t>
+  </si>
+  <si>
+    <t>V000010392</t>
+  </si>
+  <si>
+    <t>V000010393</t>
+  </si>
+  <si>
+    <t>V000010394</t>
+  </si>
+  <si>
+    <t>V000010395</t>
+  </si>
+  <si>
+    <t>V000010396</t>
+  </si>
+  <si>
+    <t>V000010397</t>
+  </si>
+  <si>
+    <t>V000010398</t>
+  </si>
+  <si>
+    <t>V000010399</t>
+  </si>
+  <si>
+    <t>V000010400</t>
+  </si>
+  <si>
+    <t>V000010401</t>
+  </si>
+  <si>
+    <t>V000010402</t>
+  </si>
+  <si>
+    <t>V000010403</t>
+  </si>
+  <si>
+    <t>V000010404</t>
+  </si>
+  <si>
+    <t>V000010405</t>
+  </si>
+  <si>
+    <t>V000010406</t>
+  </si>
+  <si>
+    <t>V000010407</t>
+  </si>
+  <si>
+    <t>V000010408</t>
+  </si>
+  <si>
+    <t>V000010409</t>
+  </si>
+  <si>
+    <t>V000010410</t>
+  </si>
+  <si>
+    <t>V000010411</t>
+  </si>
+  <si>
+    <t>V000010412</t>
+  </si>
+  <si>
+    <t>V000010413</t>
+  </si>
+  <si>
+    <t>V000010414</t>
+  </si>
+  <si>
+    <t>V000010415</t>
+  </si>
+  <si>
+    <t>V000010416</t>
+  </si>
+  <si>
+    <t>V000010417</t>
+  </si>
+  <si>
+    <t>V000010418</t>
+  </si>
+  <si>
+    <t>V000010419</t>
+  </si>
+  <si>
+    <t>V000010420</t>
+  </si>
+  <si>
+    <t>V000010421</t>
+  </si>
+  <si>
+    <t>V000010422</t>
+  </si>
+  <si>
+    <t>V000010423</t>
+  </si>
+  <si>
+    <t>V000010424</t>
+  </si>
+  <si>
+    <t>V000010425</t>
+  </si>
+  <si>
+    <t>V000010426</t>
+  </si>
+  <si>
+    <t>V000010427</t>
+  </si>
+  <si>
+    <t>V000010428</t>
+  </si>
+  <si>
+    <t>V000010429</t>
+  </si>
+  <si>
+    <t>V000010430</t>
+  </si>
+  <si>
+    <t>V000010431</t>
+  </si>
+  <si>
+    <t>V000010432</t>
+  </si>
+  <si>
+    <t>V000010433</t>
+  </si>
+  <si>
+    <t>V000010434</t>
+  </si>
+  <si>
+    <t>V000010435</t>
+  </si>
+  <si>
+    <t>V000010436</t>
+  </si>
+  <si>
+    <t>V000010437</t>
+  </si>
+  <si>
+    <t>V000010438</t>
+  </si>
+  <si>
+    <t>V000010439</t>
+  </si>
+  <si>
+    <t>V000010440</t>
+  </si>
+  <si>
+    <t>V000010441</t>
+  </si>
+  <si>
+    <t>V000010442</t>
+  </si>
+  <si>
+    <t>V000010443</t>
+  </si>
+  <si>
+    <t>V000010444</t>
+  </si>
+  <si>
+    <t>V000010445</t>
+  </si>
+  <si>
+    <t>V000010446</t>
+  </si>
+  <si>
+    <t>V000010447</t>
+  </si>
+  <si>
+    <t>V000010448</t>
+  </si>
+  <si>
+    <t>V000010449</t>
+  </si>
+  <si>
+    <t>V000010450</t>
+  </si>
+  <si>
+    <t>V000010451</t>
+  </si>
+  <si>
+    <t>V000010452</t>
+  </si>
+  <si>
+    <t>V000010453</t>
+  </si>
+  <si>
+    <t>V000010454</t>
+  </si>
+  <si>
+    <t>V000010455</t>
+  </si>
+  <si>
+    <t>V000010456</t>
+  </si>
+  <si>
+    <t>V000010457</t>
+  </si>
+  <si>
+    <t>V000010458</t>
+  </si>
+  <si>
+    <t>V000010459</t>
+  </si>
+  <si>
+    <t>V000010460</t>
+  </si>
+  <si>
+    <t>V000010461</t>
+  </si>
+  <si>
+    <t>V000010462</t>
+  </si>
+  <si>
+    <t>V000010463</t>
+  </si>
+  <si>
+    <t>V000010464</t>
+  </si>
+  <si>
+    <t>V000010465</t>
+  </si>
+  <si>
+    <t>V000010466</t>
+  </si>
+  <si>
+    <t>V000010467</t>
+  </si>
+  <si>
+    <t>V000010468</t>
+  </si>
+  <si>
+    <t>V000010469</t>
+  </si>
+  <si>
+    <t>V000010470</t>
+  </si>
+  <si>
+    <t>V000010471</t>
+  </si>
+  <si>
+    <t>V000010472</t>
+  </si>
+  <si>
+    <t>V000010473</t>
+  </si>
+  <si>
+    <t>V000010474</t>
+  </si>
+  <si>
+    <t>V000010475</t>
+  </si>
+  <si>
+    <t>V000010476</t>
+  </si>
+  <si>
+    <t>V000010477</t>
+  </si>
+  <si>
+    <t>V000010478</t>
+  </si>
+  <si>
+    <t>V000010479</t>
+  </si>
+  <si>
+    <t>V000010480</t>
+  </si>
+  <si>
+    <t>V000010481</t>
+  </si>
+  <si>
+    <t>V000010482</t>
+  </si>
+  <si>
+    <t>V000010483</t>
+  </si>
+  <si>
+    <t>V000010484</t>
+  </si>
+  <si>
+    <t>V000010485</t>
+  </si>
+  <si>
+    <t>V000010486</t>
+  </si>
+  <si>
+    <t>V000010487</t>
+  </si>
+  <si>
+    <t>V000010488</t>
+  </si>
+  <si>
+    <t>V000010489</t>
+  </si>
+  <si>
+    <t>V000010490</t>
+  </si>
+  <si>
+    <t>V000010491</t>
+  </si>
+  <si>
+    <t>V000010492</t>
+  </si>
+  <si>
+    <t>V000010493</t>
+  </si>
+  <si>
+    <t>V000010494</t>
+  </si>
+  <si>
+    <t>V000010495</t>
+  </si>
+  <si>
+    <t>V000010496</t>
+  </si>
+  <si>
+    <t>V000010497</t>
+  </si>
+  <si>
+    <t>V000010498</t>
+  </si>
+  <si>
+    <t>V000010499</t>
+  </si>
+  <si>
+    <t>V000010500</t>
+  </si>
+  <si>
+    <t>V000010501</t>
+  </si>
+  <si>
+    <t>V000010502</t>
+  </si>
+  <si>
+    <t>V000010503</t>
+  </si>
+  <si>
+    <t>V000010504</t>
+  </si>
+  <si>
+    <t>V000010505</t>
+  </si>
+  <si>
+    <t>V000010506</t>
+  </si>
+  <si>
+    <t>V000010507</t>
+  </si>
+  <si>
+    <t>V000010508</t>
+  </si>
+  <si>
+    <t>V000010509</t>
+  </si>
+  <si>
+    <t>V000010510</t>
+  </si>
+  <si>
+    <t>V000010511</t>
+  </si>
+  <si>
+    <t>V000010512</t>
   </si>
 </sst>
 </file>
@@ -1080,10 +1998,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D238"/>
+  <dimension ref="A1:D544"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="C223" sqref="C223:C238"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="C529" sqref="C529:C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3569,6 +4487,3174 @@
         <v>241</v>
       </c>
       <c r="D238">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" t="s">
+        <v>242</v>
+      </c>
+      <c r="C240" t="s">
+        <v>243</v>
+      </c>
+      <c r="D240">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+      <c r="C241" t="s">
+        <v>244</v>
+      </c>
+      <c r="D241">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="C242" t="s">
+        <v>245</v>
+      </c>
+      <c r="D242">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" t="s">
+        <v>242</v>
+      </c>
+      <c r="C243" t="s">
+        <v>246</v>
+      </c>
+      <c r="D243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" t="s">
+        <v>242</v>
+      </c>
+      <c r="C244" t="s">
+        <v>247</v>
+      </c>
+      <c r="D244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" t="s">
+        <v>242</v>
+      </c>
+      <c r="C245" t="s">
+        <v>248</v>
+      </c>
+      <c r="D245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" t="s">
+        <v>242</v>
+      </c>
+      <c r="C246" t="s">
+        <v>249</v>
+      </c>
+      <c r="D246">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" t="s">
+        <v>242</v>
+      </c>
+      <c r="C247" t="s">
+        <v>250</v>
+      </c>
+      <c r="D247">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" t="s">
+        <v>242</v>
+      </c>
+      <c r="C248" t="s">
+        <v>251</v>
+      </c>
+      <c r="D248">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" t="s">
+        <v>242</v>
+      </c>
+      <c r="C249" t="s">
+        <v>252</v>
+      </c>
+      <c r="D249">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" t="s">
+        <v>242</v>
+      </c>
+      <c r="C250" t="s">
+        <v>253</v>
+      </c>
+      <c r="D250">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" t="s">
+        <v>242</v>
+      </c>
+      <c r="C251" t="s">
+        <v>254</v>
+      </c>
+      <c r="D251">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" t="s">
+        <v>242</v>
+      </c>
+      <c r="C252" t="s">
+        <v>255</v>
+      </c>
+      <c r="D252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" t="s">
+        <v>242</v>
+      </c>
+      <c r="C253" t="s">
+        <v>256</v>
+      </c>
+      <c r="D253">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" t="s">
+        <v>242</v>
+      </c>
+      <c r="C254" t="s">
+        <v>257</v>
+      </c>
+      <c r="D254">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" t="s">
+        <v>242</v>
+      </c>
+      <c r="C255" t="s">
+        <v>258</v>
+      </c>
+      <c r="D255">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" t="s">
+        <v>275</v>
+      </c>
+      <c r="C257" t="s">
+        <v>259</v>
+      </c>
+      <c r="D257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" t="s">
+        <v>275</v>
+      </c>
+      <c r="C258" t="s">
+        <v>260</v>
+      </c>
+      <c r="D258">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" t="s">
+        <v>275</v>
+      </c>
+      <c r="C259" t="s">
+        <v>261</v>
+      </c>
+      <c r="D259">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" t="s">
+        <v>275</v>
+      </c>
+      <c r="C260" t="s">
+        <v>262</v>
+      </c>
+      <c r="D260">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" t="s">
+        <v>275</v>
+      </c>
+      <c r="C261" t="s">
+        <v>263</v>
+      </c>
+      <c r="D261">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" t="s">
+        <v>275</v>
+      </c>
+      <c r="C262" t="s">
+        <v>264</v>
+      </c>
+      <c r="D262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" t="s">
+        <v>275</v>
+      </c>
+      <c r="C263" t="s">
+        <v>265</v>
+      </c>
+      <c r="D263">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" t="s">
+        <v>275</v>
+      </c>
+      <c r="C264" t="s">
+        <v>266</v>
+      </c>
+      <c r="D264">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" t="s">
+        <v>275</v>
+      </c>
+      <c r="C265" t="s">
+        <v>267</v>
+      </c>
+      <c r="D265">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" t="s">
+        <v>275</v>
+      </c>
+      <c r="C266" t="s">
+        <v>268</v>
+      </c>
+      <c r="D266">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" t="s">
+        <v>275</v>
+      </c>
+      <c r="C267" t="s">
+        <v>269</v>
+      </c>
+      <c r="D267">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" t="s">
+        <v>275</v>
+      </c>
+      <c r="C268" t="s">
+        <v>270</v>
+      </c>
+      <c r="D268">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" t="s">
+        <v>275</v>
+      </c>
+      <c r="C269" t="s">
+        <v>271</v>
+      </c>
+      <c r="D269">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="C270" t="s">
+        <v>272</v>
+      </c>
+      <c r="D270">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" t="s">
+        <v>275</v>
+      </c>
+      <c r="C271" t="s">
+        <v>273</v>
+      </c>
+      <c r="D271">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="C272" t="s">
+        <v>274</v>
+      </c>
+      <c r="D272">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" t="s">
+        <v>276</v>
+      </c>
+      <c r="C274" t="s">
+        <v>277</v>
+      </c>
+      <c r="D274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>276</v>
+      </c>
+      <c r="C275" t="s">
+        <v>278</v>
+      </c>
+      <c r="D275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+      <c r="C276" t="s">
+        <v>279</v>
+      </c>
+      <c r="D276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+      <c r="C277" t="s">
+        <v>280</v>
+      </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>276</v>
+      </c>
+      <c r="C278" t="s">
+        <v>281</v>
+      </c>
+      <c r="D278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>276</v>
+      </c>
+      <c r="C279" t="s">
+        <v>282</v>
+      </c>
+      <c r="D279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>276</v>
+      </c>
+      <c r="C280" t="s">
+        <v>283</v>
+      </c>
+      <c r="D280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>276</v>
+      </c>
+      <c r="C281" t="s">
+        <v>284</v>
+      </c>
+      <c r="D281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>276</v>
+      </c>
+      <c r="C282" t="s">
+        <v>285</v>
+      </c>
+      <c r="D282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>276</v>
+      </c>
+      <c r="C283" t="s">
+        <v>286</v>
+      </c>
+      <c r="D283">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>276</v>
+      </c>
+      <c r="C284" t="s">
+        <v>287</v>
+      </c>
+      <c r="D284">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>276</v>
+      </c>
+      <c r="C285" t="s">
+        <v>288</v>
+      </c>
+      <c r="D285">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>276</v>
+      </c>
+      <c r="C286" t="s">
+        <v>289</v>
+      </c>
+      <c r="D286">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>276</v>
+      </c>
+      <c r="C287" t="s">
+        <v>290</v>
+      </c>
+      <c r="D287">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>276</v>
+      </c>
+      <c r="C288" t="s">
+        <v>291</v>
+      </c>
+      <c r="D288">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>276</v>
+      </c>
+      <c r="C289" t="s">
+        <v>292</v>
+      </c>
+      <c r="D289">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>293</v>
+      </c>
+      <c r="C291" t="s">
+        <v>294</v>
+      </c>
+      <c r="D291">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>293</v>
+      </c>
+      <c r="C292" t="s">
+        <v>295</v>
+      </c>
+      <c r="D292">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>293</v>
+      </c>
+      <c r="C293" t="s">
+        <v>296</v>
+      </c>
+      <c r="D293">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+      <c r="C294" t="s">
+        <v>297</v>
+      </c>
+      <c r="D294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>293</v>
+      </c>
+      <c r="C295" t="s">
+        <v>298</v>
+      </c>
+      <c r="D295">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>293</v>
+      </c>
+      <c r="C296" t="s">
+        <v>299</v>
+      </c>
+      <c r="D296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>293</v>
+      </c>
+      <c r="C297" t="s">
+        <v>300</v>
+      </c>
+      <c r="D297">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>293</v>
+      </c>
+      <c r="C298" t="s">
+        <v>301</v>
+      </c>
+      <c r="D298">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>293</v>
+      </c>
+      <c r="C299" t="s">
+        <v>302</v>
+      </c>
+      <c r="D299">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>293</v>
+      </c>
+      <c r="C300" t="s">
+        <v>303</v>
+      </c>
+      <c r="D300">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>293</v>
+      </c>
+      <c r="C301" t="s">
+        <v>304</v>
+      </c>
+      <c r="D301">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>293</v>
+      </c>
+      <c r="C302" t="s">
+        <v>305</v>
+      </c>
+      <c r="D302">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>293</v>
+      </c>
+      <c r="C303" t="s">
+        <v>306</v>
+      </c>
+      <c r="D303">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>293</v>
+      </c>
+      <c r="C304" t="s">
+        <v>307</v>
+      </c>
+      <c r="D304">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>293</v>
+      </c>
+      <c r="C305" t="s">
+        <v>308</v>
+      </c>
+      <c r="D305">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>293</v>
+      </c>
+      <c r="C306" t="s">
+        <v>309</v>
+      </c>
+      <c r="D306">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>310</v>
+      </c>
+      <c r="C308" t="s">
+        <v>311</v>
+      </c>
+      <c r="D308">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>310</v>
+      </c>
+      <c r="C309" t="s">
+        <v>312</v>
+      </c>
+      <c r="D309">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>310</v>
+      </c>
+      <c r="C310" t="s">
+        <v>313</v>
+      </c>
+      <c r="D310">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>310</v>
+      </c>
+      <c r="C311" t="s">
+        <v>314</v>
+      </c>
+      <c r="D311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>310</v>
+      </c>
+      <c r="C312" t="s">
+        <v>315</v>
+      </c>
+      <c r="D312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>310</v>
+      </c>
+      <c r="C313" t="s">
+        <v>316</v>
+      </c>
+      <c r="D313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4">
+      <c r="A314" t="s">
+        <v>310</v>
+      </c>
+      <c r="C314" t="s">
+        <v>317</v>
+      </c>
+      <c r="D314">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4">
+      <c r="A315" t="s">
+        <v>310</v>
+      </c>
+      <c r="C315" t="s">
+        <v>318</v>
+      </c>
+      <c r="D315">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4">
+      <c r="A316" t="s">
+        <v>310</v>
+      </c>
+      <c r="C316" t="s">
+        <v>319</v>
+      </c>
+      <c r="D316">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4">
+      <c r="A317" t="s">
+        <v>310</v>
+      </c>
+      <c r="C317" t="s">
+        <v>320</v>
+      </c>
+      <c r="D317">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4">
+      <c r="A318" t="s">
+        <v>310</v>
+      </c>
+      <c r="C318" t="s">
+        <v>321</v>
+      </c>
+      <c r="D318">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4">
+      <c r="A319" t="s">
+        <v>310</v>
+      </c>
+      <c r="C319" t="s">
+        <v>322</v>
+      </c>
+      <c r="D319">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4">
+      <c r="A320" t="s">
+        <v>310</v>
+      </c>
+      <c r="C320" t="s">
+        <v>323</v>
+      </c>
+      <c r="D320">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4">
+      <c r="A321" t="s">
+        <v>310</v>
+      </c>
+      <c r="C321" t="s">
+        <v>324</v>
+      </c>
+      <c r="D321">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4">
+      <c r="A322" t="s">
+        <v>310</v>
+      </c>
+      <c r="C322" t="s">
+        <v>325</v>
+      </c>
+      <c r="D322">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4">
+      <c r="A323" t="s">
+        <v>310</v>
+      </c>
+      <c r="C323" t="s">
+        <v>326</v>
+      </c>
+      <c r="D323">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4">
+      <c r="A325" t="s">
+        <v>327</v>
+      </c>
+      <c r="C325" t="s">
+        <v>328</v>
+      </c>
+      <c r="D325">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4">
+      <c r="A326" t="s">
+        <v>327</v>
+      </c>
+      <c r="C326" t="s">
+        <v>329</v>
+      </c>
+      <c r="D326">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4">
+      <c r="A327" t="s">
+        <v>327</v>
+      </c>
+      <c r="C327" t="s">
+        <v>330</v>
+      </c>
+      <c r="D327">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4">
+      <c r="A328" t="s">
+        <v>327</v>
+      </c>
+      <c r="C328" t="s">
+        <v>331</v>
+      </c>
+      <c r="D328">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4">
+      <c r="A329" t="s">
+        <v>327</v>
+      </c>
+      <c r="C329" t="s">
+        <v>332</v>
+      </c>
+      <c r="D329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4">
+      <c r="A330" t="s">
+        <v>327</v>
+      </c>
+      <c r="C330" t="s">
+        <v>333</v>
+      </c>
+      <c r="D330">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4">
+      <c r="A331" t="s">
+        <v>327</v>
+      </c>
+      <c r="C331" t="s">
+        <v>334</v>
+      </c>
+      <c r="D331">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4">
+      <c r="A332" t="s">
+        <v>327</v>
+      </c>
+      <c r="C332" t="s">
+        <v>335</v>
+      </c>
+      <c r="D332">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4">
+      <c r="A333" t="s">
+        <v>327</v>
+      </c>
+      <c r="C333" t="s">
+        <v>336</v>
+      </c>
+      <c r="D333">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4">
+      <c r="A334" t="s">
+        <v>327</v>
+      </c>
+      <c r="C334" t="s">
+        <v>337</v>
+      </c>
+      <c r="D334">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4">
+      <c r="A335" t="s">
+        <v>327</v>
+      </c>
+      <c r="C335" t="s">
+        <v>338</v>
+      </c>
+      <c r="D335">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4">
+      <c r="A336" t="s">
+        <v>327</v>
+      </c>
+      <c r="C336" t="s">
+        <v>339</v>
+      </c>
+      <c r="D336">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4">
+      <c r="A337" t="s">
+        <v>327</v>
+      </c>
+      <c r="C337" t="s">
+        <v>340</v>
+      </c>
+      <c r="D337">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4">
+      <c r="A338" t="s">
+        <v>327</v>
+      </c>
+      <c r="C338" t="s">
+        <v>341</v>
+      </c>
+      <c r="D338">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4">
+      <c r="A339" t="s">
+        <v>327</v>
+      </c>
+      <c r="C339" t="s">
+        <v>342</v>
+      </c>
+      <c r="D339">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4">
+      <c r="A340" t="s">
+        <v>327</v>
+      </c>
+      <c r="C340" t="s">
+        <v>343</v>
+      </c>
+      <c r="D340">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4">
+      <c r="A342" t="s">
+        <v>344</v>
+      </c>
+      <c r="C342" t="s">
+        <v>356</v>
+      </c>
+      <c r="D342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4">
+      <c r="A343" t="s">
+        <v>344</v>
+      </c>
+      <c r="C343" t="s">
+        <v>357</v>
+      </c>
+      <c r="D343">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4">
+      <c r="A344" t="s">
+        <v>344</v>
+      </c>
+      <c r="C344" t="s">
+        <v>358</v>
+      </c>
+      <c r="D344">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4">
+      <c r="A345" t="s">
+        <v>344</v>
+      </c>
+      <c r="C345" t="s">
+        <v>359</v>
+      </c>
+      <c r="D345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4">
+      <c r="A346" t="s">
+        <v>344</v>
+      </c>
+      <c r="C346" t="s">
+        <v>360</v>
+      </c>
+      <c r="D346">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4">
+      <c r="A347" t="s">
+        <v>344</v>
+      </c>
+      <c r="C347" t="s">
+        <v>361</v>
+      </c>
+      <c r="D347">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4">
+      <c r="A348" t="s">
+        <v>344</v>
+      </c>
+      <c r="C348" t="s">
+        <v>362</v>
+      </c>
+      <c r="D348">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4">
+      <c r="A349" t="s">
+        <v>344</v>
+      </c>
+      <c r="C349" t="s">
+        <v>363</v>
+      </c>
+      <c r="D349">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:4">
+      <c r="A350" t="s">
+        <v>344</v>
+      </c>
+      <c r="C350" t="s">
+        <v>364</v>
+      </c>
+      <c r="D350">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351" spans="1:4">
+      <c r="A351" t="s">
+        <v>344</v>
+      </c>
+      <c r="C351" t="s">
+        <v>365</v>
+      </c>
+      <c r="D351">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="352" spans="1:4">
+      <c r="A352" t="s">
+        <v>344</v>
+      </c>
+      <c r="C352" t="s">
+        <v>366</v>
+      </c>
+      <c r="D352">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="353" spans="1:4">
+      <c r="A353" t="s">
+        <v>344</v>
+      </c>
+      <c r="C353" t="s">
+        <v>367</v>
+      </c>
+      <c r="D353">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="354" spans="1:4">
+      <c r="A354" t="s">
+        <v>344</v>
+      </c>
+      <c r="C354" t="s">
+        <v>368</v>
+      </c>
+      <c r="D354">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="355" spans="1:4">
+      <c r="A355" t="s">
+        <v>344</v>
+      </c>
+      <c r="C355" t="s">
+        <v>369</v>
+      </c>
+      <c r="D355">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="1:4">
+      <c r="A356" t="s">
+        <v>344</v>
+      </c>
+      <c r="C356" t="s">
+        <v>370</v>
+      </c>
+      <c r="D356">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="357" spans="1:4">
+      <c r="A357" t="s">
+        <v>344</v>
+      </c>
+      <c r="C357" t="s">
+        <v>371</v>
+      </c>
+      <c r="D357">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="359" spans="1:4">
+      <c r="A359" t="s">
+        <v>345</v>
+      </c>
+      <c r="C359" t="s">
+        <v>372</v>
+      </c>
+      <c r="D359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:4">
+      <c r="A360" t="s">
+        <v>345</v>
+      </c>
+      <c r="C360" t="s">
+        <v>373</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:4">
+      <c r="A361" t="s">
+        <v>345</v>
+      </c>
+      <c r="C361" t="s">
+        <v>374</v>
+      </c>
+      <c r="D361">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:4">
+      <c r="A362" t="s">
+        <v>345</v>
+      </c>
+      <c r="C362" t="s">
+        <v>375</v>
+      </c>
+      <c r="D362">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="363" spans="1:4">
+      <c r="A363" t="s">
+        <v>345</v>
+      </c>
+      <c r="C363" t="s">
+        <v>376</v>
+      </c>
+      <c r="D363">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364" spans="1:4">
+      <c r="A364" t="s">
+        <v>345</v>
+      </c>
+      <c r="C364" t="s">
+        <v>377</v>
+      </c>
+      <c r="D364">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="365" spans="1:4">
+      <c r="A365" t="s">
+        <v>345</v>
+      </c>
+      <c r="C365" t="s">
+        <v>378</v>
+      </c>
+      <c r="D365">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:4">
+      <c r="A366" t="s">
+        <v>345</v>
+      </c>
+      <c r="C366" t="s">
+        <v>379</v>
+      </c>
+      <c r="D366">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="367" spans="1:4">
+      <c r="A367" t="s">
+        <v>345</v>
+      </c>
+      <c r="C367" t="s">
+        <v>380</v>
+      </c>
+      <c r="D367">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="368" spans="1:4">
+      <c r="A368" t="s">
+        <v>345</v>
+      </c>
+      <c r="C368" t="s">
+        <v>381</v>
+      </c>
+      <c r="D368">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="369" spans="1:4">
+      <c r="A369" t="s">
+        <v>345</v>
+      </c>
+      <c r="C369" t="s">
+        <v>382</v>
+      </c>
+      <c r="D369">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="370" spans="1:4">
+      <c r="A370" t="s">
+        <v>345</v>
+      </c>
+      <c r="C370" t="s">
+        <v>383</v>
+      </c>
+      <c r="D370">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371" t="s">
+        <v>345</v>
+      </c>
+      <c r="C371" t="s">
+        <v>384</v>
+      </c>
+      <c r="D371">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372" t="s">
+        <v>345</v>
+      </c>
+      <c r="C372" t="s">
+        <v>385</v>
+      </c>
+      <c r="D372">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373" t="s">
+        <v>345</v>
+      </c>
+      <c r="C373" t="s">
+        <v>386</v>
+      </c>
+      <c r="D373">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374" t="s">
+        <v>345</v>
+      </c>
+      <c r="C374" t="s">
+        <v>387</v>
+      </c>
+      <c r="D374">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376" t="s">
+        <v>346</v>
+      </c>
+      <c r="C376" t="s">
+        <v>388</v>
+      </c>
+      <c r="D376">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4">
+      <c r="A377" t="s">
+        <v>346</v>
+      </c>
+      <c r="C377" t="s">
+        <v>389</v>
+      </c>
+      <c r="D377">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4">
+      <c r="A378" t="s">
+        <v>346</v>
+      </c>
+      <c r="C378" t="s">
+        <v>390</v>
+      </c>
+      <c r="D378">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4">
+      <c r="A379" t="s">
+        <v>346</v>
+      </c>
+      <c r="C379" t="s">
+        <v>391</v>
+      </c>
+      <c r="D379">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="380" spans="1:4">
+      <c r="A380" t="s">
+        <v>346</v>
+      </c>
+      <c r="C380" t="s">
+        <v>392</v>
+      </c>
+      <c r="D380">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4">
+      <c r="A381" t="s">
+        <v>346</v>
+      </c>
+      <c r="C381" t="s">
+        <v>393</v>
+      </c>
+      <c r="D381">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="382" spans="1:4">
+      <c r="A382" t="s">
+        <v>346</v>
+      </c>
+      <c r="C382" t="s">
+        <v>394</v>
+      </c>
+      <c r="D382">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:4">
+      <c r="A383" t="s">
+        <v>346</v>
+      </c>
+      <c r="C383" t="s">
+        <v>395</v>
+      </c>
+      <c r="D383">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:4">
+      <c r="A384" t="s">
+        <v>346</v>
+      </c>
+      <c r="C384" t="s">
+        <v>396</v>
+      </c>
+      <c r="D384">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="385" spans="1:4">
+      <c r="A385" t="s">
+        <v>346</v>
+      </c>
+      <c r="C385" t="s">
+        <v>397</v>
+      </c>
+      <c r="D385">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="386" spans="1:4">
+      <c r="A386" t="s">
+        <v>346</v>
+      </c>
+      <c r="C386" t="s">
+        <v>398</v>
+      </c>
+      <c r="D386">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="387" spans="1:4">
+      <c r="A387" t="s">
+        <v>346</v>
+      </c>
+      <c r="C387" t="s">
+        <v>399</v>
+      </c>
+      <c r="D387">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="388" spans="1:4">
+      <c r="A388" t="s">
+        <v>346</v>
+      </c>
+      <c r="C388" t="s">
+        <v>400</v>
+      </c>
+      <c r="D388">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="389" spans="1:4">
+      <c r="A389" t="s">
+        <v>346</v>
+      </c>
+      <c r="C389" t="s">
+        <v>401</v>
+      </c>
+      <c r="D389">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="390" spans="1:4">
+      <c r="A390" t="s">
+        <v>346</v>
+      </c>
+      <c r="C390" t="s">
+        <v>402</v>
+      </c>
+      <c r="D390">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="391" spans="1:4">
+      <c r="A391" t="s">
+        <v>346</v>
+      </c>
+      <c r="C391" t="s">
+        <v>403</v>
+      </c>
+      <c r="D391">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="393" spans="1:4">
+      <c r="A393" t="s">
+        <v>347</v>
+      </c>
+      <c r="C393" t="s">
+        <v>404</v>
+      </c>
+      <c r="D393">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="394" spans="1:4">
+      <c r="A394" t="s">
+        <v>347</v>
+      </c>
+      <c r="C394" t="s">
+        <v>405</v>
+      </c>
+      <c r="D394">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="395" spans="1:4">
+      <c r="A395" t="s">
+        <v>347</v>
+      </c>
+      <c r="C395" t="s">
+        <v>406</v>
+      </c>
+      <c r="D395">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:4">
+      <c r="A396" t="s">
+        <v>347</v>
+      </c>
+      <c r="C396" t="s">
+        <v>407</v>
+      </c>
+      <c r="D396">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="397" spans="1:4">
+      <c r="A397" t="s">
+        <v>347</v>
+      </c>
+      <c r="C397" t="s">
+        <v>408</v>
+      </c>
+      <c r="D397">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="398" spans="1:4">
+      <c r="A398" t="s">
+        <v>347</v>
+      </c>
+      <c r="C398" t="s">
+        <v>409</v>
+      </c>
+      <c r="D398">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="399" spans="1:4">
+      <c r="A399" t="s">
+        <v>347</v>
+      </c>
+      <c r="C399" t="s">
+        <v>410</v>
+      </c>
+      <c r="D399">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:4">
+      <c r="A400" t="s">
+        <v>347</v>
+      </c>
+      <c r="C400" t="s">
+        <v>411</v>
+      </c>
+      <c r="D400">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="401" spans="1:4">
+      <c r="A401" t="s">
+        <v>347</v>
+      </c>
+      <c r="C401" t="s">
+        <v>412</v>
+      </c>
+      <c r="D401">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" t="s">
+        <v>347</v>
+      </c>
+      <c r="C402" t="s">
+        <v>413</v>
+      </c>
+      <c r="D402">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="1:4">
+      <c r="A403" t="s">
+        <v>347</v>
+      </c>
+      <c r="C403" t="s">
+        <v>414</v>
+      </c>
+      <c r="D403">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="404" spans="1:4">
+      <c r="A404" t="s">
+        <v>347</v>
+      </c>
+      <c r="C404" t="s">
+        <v>415</v>
+      </c>
+      <c r="D404">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="405" spans="1:4">
+      <c r="A405" t="s">
+        <v>347</v>
+      </c>
+      <c r="C405" t="s">
+        <v>416</v>
+      </c>
+      <c r="D405">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="406" spans="1:4">
+      <c r="A406" t="s">
+        <v>347</v>
+      </c>
+      <c r="C406" t="s">
+        <v>417</v>
+      </c>
+      <c r="D406">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="407" spans="1:4">
+      <c r="A407" t="s">
+        <v>347</v>
+      </c>
+      <c r="C407" t="s">
+        <v>418</v>
+      </c>
+      <c r="D407">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="408" spans="1:4">
+      <c r="A408" t="s">
+        <v>347</v>
+      </c>
+      <c r="C408" t="s">
+        <v>419</v>
+      </c>
+      <c r="D408">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="410" spans="1:4">
+      <c r="A410" t="s">
+        <v>348</v>
+      </c>
+      <c r="C410" t="s">
+        <v>420</v>
+      </c>
+      <c r="D410">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="411" spans="1:4">
+      <c r="A411" t="s">
+        <v>348</v>
+      </c>
+      <c r="C411" t="s">
+        <v>421</v>
+      </c>
+      <c r="D411">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:4">
+      <c r="A412" t="s">
+        <v>348</v>
+      </c>
+      <c r="C412" t="s">
+        <v>422</v>
+      </c>
+      <c r="D412">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413" t="s">
+        <v>348</v>
+      </c>
+      <c r="C413" t="s">
+        <v>423</v>
+      </c>
+      <c r="D413">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414" t="s">
+        <v>348</v>
+      </c>
+      <c r="C414" t="s">
+        <v>424</v>
+      </c>
+      <c r="D414">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="415" spans="1:4">
+      <c r="A415" t="s">
+        <v>348</v>
+      </c>
+      <c r="C415" t="s">
+        <v>425</v>
+      </c>
+      <c r="D415">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="416" spans="1:4">
+      <c r="A416" t="s">
+        <v>348</v>
+      </c>
+      <c r="C416" t="s">
+        <v>426</v>
+      </c>
+      <c r="D416">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:4">
+      <c r="A417" t="s">
+        <v>348</v>
+      </c>
+      <c r="C417" t="s">
+        <v>427</v>
+      </c>
+      <c r="D417">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="418" spans="1:4">
+      <c r="A418" t="s">
+        <v>348</v>
+      </c>
+      <c r="C418" t="s">
+        <v>428</v>
+      </c>
+      <c r="D418">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:4">
+      <c r="A419" t="s">
+        <v>348</v>
+      </c>
+      <c r="C419" t="s">
+        <v>429</v>
+      </c>
+      <c r="D419">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="420" spans="1:4">
+      <c r="A420" t="s">
+        <v>348</v>
+      </c>
+      <c r="C420" t="s">
+        <v>430</v>
+      </c>
+      <c r="D420">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="421" spans="1:4">
+      <c r="A421" t="s">
+        <v>348</v>
+      </c>
+      <c r="C421" t="s">
+        <v>431</v>
+      </c>
+      <c r="D421">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422" spans="1:4">
+      <c r="A422" t="s">
+        <v>348</v>
+      </c>
+      <c r="C422" t="s">
+        <v>432</v>
+      </c>
+      <c r="D422">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="423" spans="1:4">
+      <c r="A423" t="s">
+        <v>348</v>
+      </c>
+      <c r="C423" t="s">
+        <v>433</v>
+      </c>
+      <c r="D423">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="424" spans="1:4">
+      <c r="A424" t="s">
+        <v>348</v>
+      </c>
+      <c r="C424" t="s">
+        <v>434</v>
+      </c>
+      <c r="D424">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="425" spans="1:4">
+      <c r="A425" t="s">
+        <v>348</v>
+      </c>
+      <c r="C425" t="s">
+        <v>435</v>
+      </c>
+      <c r="D425">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="427" spans="1:4">
+      <c r="A427" t="s">
+        <v>349</v>
+      </c>
+      <c r="C427" t="s">
+        <v>436</v>
+      </c>
+      <c r="D427">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="428" spans="1:4">
+      <c r="A428" t="s">
+        <v>349</v>
+      </c>
+      <c r="C428" t="s">
+        <v>437</v>
+      </c>
+      <c r="D428">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="429" spans="1:4">
+      <c r="A429" t="s">
+        <v>349</v>
+      </c>
+      <c r="C429" t="s">
+        <v>438</v>
+      </c>
+      <c r="D429">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="430" spans="1:4">
+      <c r="A430" t="s">
+        <v>349</v>
+      </c>
+      <c r="C430" t="s">
+        <v>439</v>
+      </c>
+      <c r="D430">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="431" spans="1:4">
+      <c r="A431" t="s">
+        <v>349</v>
+      </c>
+      <c r="C431" t="s">
+        <v>440</v>
+      </c>
+      <c r="D431">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4">
+      <c r="A432" t="s">
+        <v>349</v>
+      </c>
+      <c r="C432" t="s">
+        <v>441</v>
+      </c>
+      <c r="D432">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4">
+      <c r="A433" t="s">
+        <v>349</v>
+      </c>
+      <c r="C433" t="s">
+        <v>442</v>
+      </c>
+      <c r="D433">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4">
+      <c r="A434" t="s">
+        <v>349</v>
+      </c>
+      <c r="C434" t="s">
+        <v>443</v>
+      </c>
+      <c r="D434">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="435" spans="1:4">
+      <c r="A435" t="s">
+        <v>349</v>
+      </c>
+      <c r="C435" t="s">
+        <v>444</v>
+      </c>
+      <c r="D435">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="436" spans="1:4">
+      <c r="A436" t="s">
+        <v>349</v>
+      </c>
+      <c r="C436" t="s">
+        <v>445</v>
+      </c>
+      <c r="D436">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="437" spans="1:4">
+      <c r="A437" t="s">
+        <v>349</v>
+      </c>
+      <c r="C437" t="s">
+        <v>446</v>
+      </c>
+      <c r="D437">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="438" spans="1:4">
+      <c r="A438" t="s">
+        <v>349</v>
+      </c>
+      <c r="C438" t="s">
+        <v>447</v>
+      </c>
+      <c r="D438">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="439" spans="1:4">
+      <c r="A439" t="s">
+        <v>349</v>
+      </c>
+      <c r="C439" t="s">
+        <v>448</v>
+      </c>
+      <c r="D439">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4">
+      <c r="A440" t="s">
+        <v>349</v>
+      </c>
+      <c r="C440" t="s">
+        <v>449</v>
+      </c>
+      <c r="D440">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4">
+      <c r="A441" t="s">
+        <v>349</v>
+      </c>
+      <c r="C441" t="s">
+        <v>450</v>
+      </c>
+      <c r="D441">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4">
+      <c r="A442" t="s">
+        <v>349</v>
+      </c>
+      <c r="C442" t="s">
+        <v>451</v>
+      </c>
+      <c r="D442">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4">
+      <c r="A444" t="s">
+        <v>350</v>
+      </c>
+      <c r="C444" t="s">
+        <v>452</v>
+      </c>
+      <c r="D444">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4">
+      <c r="A445" t="s">
+        <v>350</v>
+      </c>
+      <c r="C445" t="s">
+        <v>453</v>
+      </c>
+      <c r="D445">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4">
+      <c r="A446" t="s">
+        <v>350</v>
+      </c>
+      <c r="C446" t="s">
+        <v>454</v>
+      </c>
+      <c r="D446">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4">
+      <c r="A447" t="s">
+        <v>350</v>
+      </c>
+      <c r="C447" t="s">
+        <v>455</v>
+      </c>
+      <c r="D447">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4">
+      <c r="A448" t="s">
+        <v>350</v>
+      </c>
+      <c r="C448" t="s">
+        <v>456</v>
+      </c>
+      <c r="D448">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:4">
+      <c r="A449" t="s">
+        <v>350</v>
+      </c>
+      <c r="C449" t="s">
+        <v>457</v>
+      </c>
+      <c r="D449">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="450" spans="1:4">
+      <c r="A450" t="s">
+        <v>350</v>
+      </c>
+      <c r="C450" t="s">
+        <v>458</v>
+      </c>
+      <c r="D450">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:4">
+      <c r="A451" t="s">
+        <v>350</v>
+      </c>
+      <c r="C451" t="s">
+        <v>459</v>
+      </c>
+      <c r="D451">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="452" spans="1:4">
+      <c r="A452" t="s">
+        <v>350</v>
+      </c>
+      <c r="C452" t="s">
+        <v>460</v>
+      </c>
+      <c r="D452">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="453" spans="1:4">
+      <c r="A453" t="s">
+        <v>350</v>
+      </c>
+      <c r="C453" t="s">
+        <v>461</v>
+      </c>
+      <c r="D453">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="454" spans="1:4">
+      <c r="A454" t="s">
+        <v>350</v>
+      </c>
+      <c r="C454" t="s">
+        <v>462</v>
+      </c>
+      <c r="D454">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="455" spans="1:4">
+      <c r="A455" t="s">
+        <v>350</v>
+      </c>
+      <c r="C455" t="s">
+        <v>463</v>
+      </c>
+      <c r="D455">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="456" spans="1:4">
+      <c r="A456" t="s">
+        <v>350</v>
+      </c>
+      <c r="C456" t="s">
+        <v>464</v>
+      </c>
+      <c r="D456">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="457" spans="1:4">
+      <c r="A457" t="s">
+        <v>350</v>
+      </c>
+      <c r="C457" t="s">
+        <v>465</v>
+      </c>
+      <c r="D457">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="458" spans="1:4">
+      <c r="A458" t="s">
+        <v>350</v>
+      </c>
+      <c r="C458" t="s">
+        <v>466</v>
+      </c>
+      <c r="D458">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="459" spans="1:4">
+      <c r="A459" t="s">
+        <v>350</v>
+      </c>
+      <c r="C459" t="s">
+        <v>467</v>
+      </c>
+      <c r="D459">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="461" spans="1:4">
+      <c r="A461" t="s">
+        <v>351</v>
+      </c>
+      <c r="C461" t="s">
+        <v>468</v>
+      </c>
+      <c r="D461">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="462" spans="1:4">
+      <c r="A462" t="s">
+        <v>351</v>
+      </c>
+      <c r="C462" t="s">
+        <v>469</v>
+      </c>
+      <c r="D462">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="463" spans="1:4">
+      <c r="A463" t="s">
+        <v>351</v>
+      </c>
+      <c r="C463" t="s">
+        <v>470</v>
+      </c>
+      <c r="D463">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:4">
+      <c r="A464" t="s">
+        <v>351</v>
+      </c>
+      <c r="C464" t="s">
+        <v>471</v>
+      </c>
+      <c r="D464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:4">
+      <c r="A465" t="s">
+        <v>351</v>
+      </c>
+      <c r="C465" t="s">
+        <v>472</v>
+      </c>
+      <c r="D465">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:4">
+      <c r="A466" t="s">
+        <v>351</v>
+      </c>
+      <c r="C466" t="s">
+        <v>473</v>
+      </c>
+      <c r="D466">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="467" spans="1:4">
+      <c r="A467" t="s">
+        <v>351</v>
+      </c>
+      <c r="C467" t="s">
+        <v>474</v>
+      </c>
+      <c r="D467">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:4">
+      <c r="A468" t="s">
+        <v>351</v>
+      </c>
+      <c r="C468" t="s">
+        <v>475</v>
+      </c>
+      <c r="D468">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="469" spans="1:4">
+      <c r="A469" t="s">
+        <v>351</v>
+      </c>
+      <c r="C469" t="s">
+        <v>476</v>
+      </c>
+      <c r="D469">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="470" spans="1:4">
+      <c r="A470" t="s">
+        <v>351</v>
+      </c>
+      <c r="C470" t="s">
+        <v>477</v>
+      </c>
+      <c r="D470">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="471" spans="1:4">
+      <c r="A471" t="s">
+        <v>351</v>
+      </c>
+      <c r="C471" t="s">
+        <v>478</v>
+      </c>
+      <c r="D471">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="472" spans="1:4">
+      <c r="A472" t="s">
+        <v>351</v>
+      </c>
+      <c r="C472" t="s">
+        <v>479</v>
+      </c>
+      <c r="D472">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="473" spans="1:4">
+      <c r="A473" t="s">
+        <v>351</v>
+      </c>
+      <c r="C473" t="s">
+        <v>480</v>
+      </c>
+      <c r="D473">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="474" spans="1:4">
+      <c r="A474" t="s">
+        <v>351</v>
+      </c>
+      <c r="C474" t="s">
+        <v>481</v>
+      </c>
+      <c r="D474">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="475" spans="1:4">
+      <c r="A475" t="s">
+        <v>351</v>
+      </c>
+      <c r="C475" t="s">
+        <v>482</v>
+      </c>
+      <c r="D475">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="476" spans="1:4">
+      <c r="A476" t="s">
+        <v>351</v>
+      </c>
+      <c r="C476" t="s">
+        <v>483</v>
+      </c>
+      <c r="D476">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="478" spans="1:4">
+      <c r="A478" t="s">
+        <v>352</v>
+      </c>
+      <c r="C478" t="s">
+        <v>484</v>
+      </c>
+      <c r="D478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:4">
+      <c r="A479" t="s">
+        <v>352</v>
+      </c>
+      <c r="C479" t="s">
+        <v>485</v>
+      </c>
+      <c r="D479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:4">
+      <c r="A480" t="s">
+        <v>352</v>
+      </c>
+      <c r="C480" t="s">
+        <v>486</v>
+      </c>
+      <c r="D480">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="1:4">
+      <c r="A481" t="s">
+        <v>352</v>
+      </c>
+      <c r="C481" t="s">
+        <v>487</v>
+      </c>
+      <c r="D481">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="1:4">
+      <c r="A482" t="s">
+        <v>352</v>
+      </c>
+      <c r="C482" t="s">
+        <v>488</v>
+      </c>
+      <c r="D482">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:4">
+      <c r="A483" t="s">
+        <v>352</v>
+      </c>
+      <c r="C483" t="s">
+        <v>489</v>
+      </c>
+      <c r="D483">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="484" spans="1:4">
+      <c r="A484" t="s">
+        <v>352</v>
+      </c>
+      <c r="C484" t="s">
+        <v>490</v>
+      </c>
+      <c r="D484">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="485" spans="1:4">
+      <c r="A485" t="s">
+        <v>352</v>
+      </c>
+      <c r="C485" t="s">
+        <v>491</v>
+      </c>
+      <c r="D485">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="486" spans="1:4">
+      <c r="A486" t="s">
+        <v>352</v>
+      </c>
+      <c r="C486" t="s">
+        <v>492</v>
+      </c>
+      <c r="D486">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:4">
+      <c r="A487" t="s">
+        <v>352</v>
+      </c>
+      <c r="C487" t="s">
+        <v>493</v>
+      </c>
+      <c r="D487">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="488" spans="1:4">
+      <c r="A488" t="s">
+        <v>352</v>
+      </c>
+      <c r="C488" t="s">
+        <v>494</v>
+      </c>
+      <c r="D488">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="489" spans="1:4">
+      <c r="A489" t="s">
+        <v>352</v>
+      </c>
+      <c r="C489" t="s">
+        <v>495</v>
+      </c>
+      <c r="D489">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="490" spans="1:4">
+      <c r="A490" t="s">
+        <v>352</v>
+      </c>
+      <c r="C490" t="s">
+        <v>496</v>
+      </c>
+      <c r="D490">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="491" spans="1:4">
+      <c r="A491" t="s">
+        <v>352</v>
+      </c>
+      <c r="C491" t="s">
+        <v>497</v>
+      </c>
+      <c r="D491">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="492" spans="1:4">
+      <c r="A492" t="s">
+        <v>352</v>
+      </c>
+      <c r="C492" t="s">
+        <v>498</v>
+      </c>
+      <c r="D492">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="493" spans="1:4">
+      <c r="A493" t="s">
+        <v>352</v>
+      </c>
+      <c r="C493" t="s">
+        <v>499</v>
+      </c>
+      <c r="D493">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="495" spans="1:4">
+      <c r="A495" t="s">
+        <v>353</v>
+      </c>
+      <c r="C495" t="s">
+        <v>500</v>
+      </c>
+      <c r="D495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="496" spans="1:4">
+      <c r="A496" t="s">
+        <v>353</v>
+      </c>
+      <c r="C496" t="s">
+        <v>501</v>
+      </c>
+      <c r="D496">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="497" spans="1:4">
+      <c r="A497" t="s">
+        <v>353</v>
+      </c>
+      <c r="C497" t="s">
+        <v>502</v>
+      </c>
+      <c r="D497">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="498" spans="1:4">
+      <c r="A498" t="s">
+        <v>353</v>
+      </c>
+      <c r="C498" t="s">
+        <v>503</v>
+      </c>
+      <c r="D498">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="499" spans="1:4">
+      <c r="A499" t="s">
+        <v>353</v>
+      </c>
+      <c r="C499" t="s">
+        <v>504</v>
+      </c>
+      <c r="D499">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:4">
+      <c r="A500" t="s">
+        <v>353</v>
+      </c>
+      <c r="C500" t="s">
+        <v>505</v>
+      </c>
+      <c r="D500">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="501" spans="1:4">
+      <c r="A501" t="s">
+        <v>353</v>
+      </c>
+      <c r="C501" t="s">
+        <v>506</v>
+      </c>
+      <c r="D501">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:4">
+      <c r="A502" t="s">
+        <v>353</v>
+      </c>
+      <c r="C502" t="s">
+        <v>507</v>
+      </c>
+      <c r="D502">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="503" spans="1:4">
+      <c r="A503" t="s">
+        <v>353</v>
+      </c>
+      <c r="C503" t="s">
+        <v>508</v>
+      </c>
+      <c r="D503">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="504" spans="1:4">
+      <c r="A504" t="s">
+        <v>353</v>
+      </c>
+      <c r="C504" t="s">
+        <v>509</v>
+      </c>
+      <c r="D504">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="505" spans="1:4">
+      <c r="A505" t="s">
+        <v>353</v>
+      </c>
+      <c r="C505" t="s">
+        <v>510</v>
+      </c>
+      <c r="D505">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="506" spans="1:4">
+      <c r="A506" t="s">
+        <v>353</v>
+      </c>
+      <c r="C506" t="s">
+        <v>511</v>
+      </c>
+      <c r="D506">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="507" spans="1:4">
+      <c r="A507" t="s">
+        <v>353</v>
+      </c>
+      <c r="C507" t="s">
+        <v>512</v>
+      </c>
+      <c r="D507">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="508" spans="1:4">
+      <c r="A508" t="s">
+        <v>353</v>
+      </c>
+      <c r="C508" t="s">
+        <v>513</v>
+      </c>
+      <c r="D508">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="509" spans="1:4">
+      <c r="A509" t="s">
+        <v>353</v>
+      </c>
+      <c r="C509" t="s">
+        <v>514</v>
+      </c>
+      <c r="D509">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="510" spans="1:4">
+      <c r="A510" t="s">
+        <v>353</v>
+      </c>
+      <c r="C510" t="s">
+        <v>515</v>
+      </c>
+      <c r="D510">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="512" spans="1:4">
+      <c r="A512" t="s">
+        <v>354</v>
+      </c>
+      <c r="C512" t="s">
+        <v>516</v>
+      </c>
+      <c r="D512">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="513" spans="1:4">
+      <c r="A513" t="s">
+        <v>354</v>
+      </c>
+      <c r="C513" t="s">
+        <v>517</v>
+      </c>
+      <c r="D513">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="514" spans="1:4">
+      <c r="A514" t="s">
+        <v>354</v>
+      </c>
+      <c r="C514" t="s">
+        <v>518</v>
+      </c>
+      <c r="D514">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="515" spans="1:4">
+      <c r="A515" t="s">
+        <v>354</v>
+      </c>
+      <c r="C515" t="s">
+        <v>519</v>
+      </c>
+      <c r="D515">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:4">
+      <c r="A516" t="s">
+        <v>354</v>
+      </c>
+      <c r="C516" t="s">
+        <v>520</v>
+      </c>
+      <c r="D516">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517" spans="1:4">
+      <c r="A517" t="s">
+        <v>354</v>
+      </c>
+      <c r="C517" t="s">
+        <v>521</v>
+      </c>
+      <c r="D517">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="518" spans="1:4">
+      <c r="A518" t="s">
+        <v>354</v>
+      </c>
+      <c r="C518" t="s">
+        <v>522</v>
+      </c>
+      <c r="D518">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:4">
+      <c r="A519" t="s">
+        <v>354</v>
+      </c>
+      <c r="C519" t="s">
+        <v>523</v>
+      </c>
+      <c r="D519">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="520" spans="1:4">
+      <c r="A520" t="s">
+        <v>354</v>
+      </c>
+      <c r="C520" t="s">
+        <v>524</v>
+      </c>
+      <c r="D520">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="521" spans="1:4">
+      <c r="A521" t="s">
+        <v>354</v>
+      </c>
+      <c r="C521" t="s">
+        <v>525</v>
+      </c>
+      <c r="D521">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="522" spans="1:4">
+      <c r="A522" t="s">
+        <v>354</v>
+      </c>
+      <c r="C522" t="s">
+        <v>526</v>
+      </c>
+      <c r="D522">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="523" spans="1:4">
+      <c r="A523" t="s">
+        <v>354</v>
+      </c>
+      <c r="C523" t="s">
+        <v>527</v>
+      </c>
+      <c r="D523">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="524" spans="1:4">
+      <c r="A524" t="s">
+        <v>354</v>
+      </c>
+      <c r="C524" t="s">
+        <v>528</v>
+      </c>
+      <c r="D524">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="525" spans="1:4">
+      <c r="A525" t="s">
+        <v>354</v>
+      </c>
+      <c r="C525" t="s">
+        <v>529</v>
+      </c>
+      <c r="D525">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="526" spans="1:4">
+      <c r="A526" t="s">
+        <v>354</v>
+      </c>
+      <c r="C526" t="s">
+        <v>530</v>
+      </c>
+      <c r="D526">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="527" spans="1:4">
+      <c r="A527" t="s">
+        <v>354</v>
+      </c>
+      <c r="C527" t="s">
+        <v>531</v>
+      </c>
+      <c r="D527">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="529" spans="1:4">
+      <c r="A529" t="s">
+        <v>355</v>
+      </c>
+      <c r="C529" t="s">
+        <v>532</v>
+      </c>
+      <c r="D529">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="530" spans="1:4">
+      <c r="A530" t="s">
+        <v>355</v>
+      </c>
+      <c r="C530" t="s">
+        <v>533</v>
+      </c>
+      <c r="D530">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="531" spans="1:4">
+      <c r="A531" t="s">
+        <v>355</v>
+      </c>
+      <c r="C531" t="s">
+        <v>534</v>
+      </c>
+      <c r="D531">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="532" spans="1:4">
+      <c r="A532" t="s">
+        <v>355</v>
+      </c>
+      <c r="C532" t="s">
+        <v>535</v>
+      </c>
+      <c r="D532">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:4">
+      <c r="A533" t="s">
+        <v>355</v>
+      </c>
+      <c r="C533" t="s">
+        <v>536</v>
+      </c>
+      <c r="D533">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534" spans="1:4">
+      <c r="A534" t="s">
+        <v>355</v>
+      </c>
+      <c r="C534" t="s">
+        <v>537</v>
+      </c>
+      <c r="D534">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="535" spans="1:4">
+      <c r="A535" t="s">
+        <v>355</v>
+      </c>
+      <c r="C535" t="s">
+        <v>538</v>
+      </c>
+      <c r="D535">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:4">
+      <c r="A536" t="s">
+        <v>355</v>
+      </c>
+      <c r="C536" t="s">
+        <v>539</v>
+      </c>
+      <c r="D536">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="537" spans="1:4">
+      <c r="A537" t="s">
+        <v>355</v>
+      </c>
+      <c r="C537" t="s">
+        <v>540</v>
+      </c>
+      <c r="D537">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="538" spans="1:4">
+      <c r="A538" t="s">
+        <v>355</v>
+      </c>
+      <c r="C538" t="s">
+        <v>541</v>
+      </c>
+      <c r="D538">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="539" spans="1:4">
+      <c r="A539" t="s">
+        <v>355</v>
+      </c>
+      <c r="C539" t="s">
+        <v>542</v>
+      </c>
+      <c r="D539">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="540" spans="1:4">
+      <c r="A540" t="s">
+        <v>355</v>
+      </c>
+      <c r="C540" t="s">
+        <v>543</v>
+      </c>
+      <c r="D540">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="541" spans="1:4">
+      <c r="A541" t="s">
+        <v>355</v>
+      </c>
+      <c r="C541" t="s">
+        <v>544</v>
+      </c>
+      <c r="D541">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="542" spans="1:4">
+      <c r="A542" t="s">
+        <v>355</v>
+      </c>
+      <c r="C542" t="s">
+        <v>545</v>
+      </c>
+      <c r="D542">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="543" spans="1:4">
+      <c r="A543" t="s">
+        <v>355</v>
+      </c>
+      <c r="C543" t="s">
+        <v>546</v>
+      </c>
+      <c r="D543">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="544" spans="1:4">
+      <c r="A544" t="s">
+        <v>355</v>
+      </c>
+      <c r="C544" t="s">
+        <v>547</v>
+      </c>
+      <c r="D544">
         <v>16</v>
       </c>
     </row>
